--- a/GameResources/ResConfigs/任务引导系统配置文件/guide.xlsx
+++ b/GameResources/ResConfigs/任务引导系统配置文件/guide.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="23040" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="maintask_format" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\Dev\SyncDemo\DarkGodBranch1\xls\maintask_format.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="maintask_format" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\Dev\SyncDemo\DarkGodBranch1\xls\maintask_format.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="2" name="maintask_format1" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\Dev\SyncDemo\DarkGodBranch1\xls\maintask_format.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="2" name="maintask_format1" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\Dev\SyncDemo\DarkGodBranch1\xls\maintask_format.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
-  <connection id="3" name="maintask_format2" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\Dev\SyncDemo\DarkGodBranch1\xls\maintask_format.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="3" name="maintask_format2" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\Dev\SyncDemo\DarkGodBranch1\xls\maintask_format.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
@@ -31,15 +44,36 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dilogArr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>npcID</t>
+  </si>
+  <si>
+    <t>dialogArr</t>
   </si>
   <si>
     <t>actID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>#0|智者您好，晚辈$name,前来拜会。
+#1|漫漫人生路，你我得以相遇也是一种缘分。我看你骨骼精奇，眉宇间正气凛然，将来定能成就一番事业。
+#0|智者过誉了，晚辈阅历尚浅，学识浅薄，空有满腔热血，还请前辈多多教导。
+#1|教导谈不上，但我现有一事可交付与你，若你能办妥，对你而言也是一种历练。你可有意为之？
+#0|能为智者办事，是晚辈的福分，定当竭尽所能，请您明示。
+#1|甚好，此事我已安排妥当，你去主城找凯伦将军，他会告诉你怎么做。
+#0|好的，晚辈即刻启程。</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <t>#0|将军，晚辈$name,乃智者派遣前来，说有一事交付于我。
@@ -66,66 +100,372 @@
     <t>#1|沟通能接近彼此之间的距离。如果没能拉近，肯定是你没有说普通话。
 #0|是时候让世界听到我的声音了。</t>
   </si>
-  <si>
-    <t>npcID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#0|智者您好，晚辈$name,前来拜会。
-#1|漫漫人生路，你我得以相遇也是一种缘分。我看你骨骼精奇，眉宇间正气凛然，将来定能成就一番事业。
-#0|智者过誉了，晚辈阅历尚浅，学识浅薄，空有满腔热血，还请前辈多多教导。
-#1|教导谈不上，但我现有一事可交付与你，若你能办妥，对你而言也是一种历练。你可有意为之？
-#0|能为智者办事，是晚辈的福分，定当竭尽所能，请您明示。
-#1|甚好，此事我已安排妥当，你去主城找凯伦将军，他会告诉你怎么做。
-#0|好的，晚辈即刻启程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,9 +473,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -149,43 +731,85 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <alignment horizontal="left" vertical="top"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <alignment horizontal="left" vertical="top"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="49" formatCode="@"/>
+      <alignment horizontal="left" vertical="top"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -194,20 +818,20 @@
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
   <Schema ID="Schema3">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="root">
+    <xsd:schema xmlns="" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+      <xsd:element name="root" nillable="true">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="item" form="unqualified">
+            <xsd:element form="unqualified" maxOccurs="unbounded" minOccurs="0" name="item" nillable="true">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="npcID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="dilogArr" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="actID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="coin" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="exp" form="unqualified"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="npcID" nillable="true" type="xsd:string"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="dilogArr" nillable="true" type="xsd:string"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="actID" nillable="true" type="xsd:string"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="coin" nillable="true" type="xsd:string"/>
+                  <xsd:element form="unqualified" minOccurs="0" name="exp" nillable="true" type="xsd:string"/>
                 </xsd:sequence>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
+                <xsd:attribute form="unqualified" name="ID" type="xsd:string"/>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -216,31 +840,31 @@
     </xsd:schema>
   </Schema>
   <Map ID="3" Name="root_映射" RootElement="root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+    <DataBinding ConnectionID="3" FileBinding="true" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F7" tableType="xml" totalsRowShown="0" dataDxfId="0" connectionId="3">
-  <autoFilter ref="A1:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F7" tableType="xml" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F7" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="ID" name="ID" dataDxfId="6">
+    <tableColumn id="1" name="ID" uniqueName="ID" dataDxfId="0">
       <xmlColumnPr mapId="3" xpath="/root/item/@ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="npcID" name="npcID" dataDxfId="5">
+    <tableColumn id="2" name="npcID" uniqueName="npcID" dataDxfId="1">
       <xmlColumnPr mapId="3" xpath="/root/item/npcID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="dilogArr" name="dilogArr" dataDxfId="4">
+    <tableColumn id="3" name="dialogArr" uniqueName="dilogArr" dataDxfId="2">
       <xmlColumnPr mapId="3" xpath="/root/item/dilogArr" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="actID" name="actID" dataDxfId="3">
+    <tableColumn id="4" name="actID" uniqueName="actID" dataDxfId="3">
       <xmlColumnPr mapId="3" xpath="/root/item/actID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="coin" name="coin" dataDxfId="2">
+    <tableColumn id="5" name="coin" uniqueName="coin" dataDxfId="4">
       <xmlColumnPr mapId="3" xpath="/root/item/coin" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="exp" name="exp" dataDxfId="1">
+    <tableColumn id="6" name="exp" uniqueName="exp" dataDxfId="5">
       <xmlColumnPr mapId="3" xpath="/root/item/exp" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -291,7 +915,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +950,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,49 +1153,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.37962962962963" customWidth="1"/>
     <col min="3" max="3" width="98.5" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.37962962962963" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="7.12962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="98.25" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -579,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="72" customHeight="1" spans="1:6">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -599,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -611,7 +1235,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="57" customHeight="1" spans="1:6">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -619,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -631,7 +1255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="38.25" customHeight="1" spans="1:6">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -639,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -651,7 +1275,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="34.5" customHeight="1" spans="1:6">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -659,7 +1283,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -671,7 +1295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="31.5" customHeight="1" spans="1:6">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -679,7 +1303,7 @@
         <v>-1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -692,11 +1316,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>